--- a/data/rrv_volatiles_pca_contribution_table.xlsx
+++ b/data/rrv_volatiles_pca_contribution_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/afife_ufl_edu/Documents/DISSERTATION/MANUSCRIPT/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_DA0EDCDB8F79A8D366075C52F37BD2721A400BF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E62B5CC-18E2-417A-85EF-0DD36C5AA7F0}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_DA0EDCDB8F79A8D366075C52F37BD2721A400BF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A76C822-F17D-4607-99D0-775D2619E797}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B52" sqref="B44:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,324 +601,324 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B2">
-        <v>1.4304960218460321E-5</v>
+        <v>61.990260315491277</v>
       </c>
       <c r="C2">
-        <v>3.2962673121780079E-6</v>
+        <v>19.25647728593885</v>
       </c>
       <c r="D2">
-        <v>2.400831991429375E-4</v>
+        <v>4.7740240470292141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B3">
-        <v>1.1608199629336161E-3</v>
+        <v>15.658917728599331</v>
       </c>
       <c r="C3">
-        <v>3.4734868642094589E-4</v>
+        <v>9.0788469454365543</v>
       </c>
       <c r="D3">
-        <v>2.5871531574585192E-2</v>
+        <v>48.139312564186852</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>4.819459230832042E-6</v>
+        <v>7.7011768017072662</v>
       </c>
       <c r="C4">
-        <v>1.1504826076681249E-6</v>
+        <v>27.634069321751429</v>
       </c>
       <c r="D4">
-        <v>8.2046086774322394E-5</v>
+        <v>0.20694574342491531</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>2.2313242932521369E-4</v>
+        <v>6.5916491748242851</v>
       </c>
       <c r="C5">
-        <v>1.3369104096129671E-4</v>
+        <v>2.0041040471253502</v>
       </c>
       <c r="D5">
-        <v>4.8604593767012719E-3</v>
+        <v>2.5665230622733941</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B6">
-        <v>1.9199368256982229E-8</v>
+        <v>1.9887779091065549</v>
       </c>
       <c r="C6">
-        <v>1.128473011119852E-8</v>
+        <v>23.48824620185021</v>
       </c>
       <c r="D6">
-        <v>4.1339429845822741E-7</v>
+        <v>22.799850192325749</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B7">
-        <v>1.0587116079320109</v>
+        <v>1.253791371374682</v>
       </c>
       <c r="C7">
-        <v>0.30550155926865041</v>
+        <v>6.7955974225458364</v>
       </c>
       <c r="D7">
-        <v>9.6442387214607433E-2</v>
+        <v>4.8718125732327087</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>1.187419547082984E-5</v>
+        <v>1.0587116079320109</v>
       </c>
       <c r="C8">
-        <v>2.491300380715086E-5</v>
+        <v>0.30550155926865041</v>
       </c>
       <c r="D8">
-        <v>3.0350491211591769E-4</v>
+        <v>9.6442387214607433E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>1.6685161622277301E-6</v>
+        <v>0.88567148016544794</v>
       </c>
       <c r="C9">
-        <v>8.14462663268619E-7</v>
+        <v>0.2808468273933864</v>
       </c>
       <c r="D9">
-        <v>3.2091426839171458E-5</v>
+        <v>1.047636951512437E-4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B10">
-        <v>0.40448991565613501</v>
+        <v>0.80647862416774529</v>
       </c>
       <c r="C10">
-        <v>5.6326932881152732E-3</v>
+        <v>0.75651600791116758</v>
       </c>
       <c r="D10">
-        <v>1.4101598002779021</v>
+        <v>3.2674793021951869</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.88567148016544794</v>
+        <v>0.40448991565613501</v>
       </c>
       <c r="C11">
-        <v>0.2808468273933864</v>
+        <v>5.6326932881152732E-3</v>
       </c>
       <c r="D11">
-        <v>1.047636951512437E-4</v>
+        <v>1.4101598002779021</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B12">
-        <v>3.8759345642064423E-6</v>
+        <v>0.39124037003791262</v>
       </c>
       <c r="C12">
-        <v>5.3781619869872004E-6</v>
+        <v>5.8045596720299724</v>
       </c>
       <c r="D12">
-        <v>8.7630716434962218E-5</v>
+        <v>3.8575005771961912</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B13">
-        <v>6.2303481337857136E-12</v>
+        <v>0.32612271737307919</v>
       </c>
       <c r="C13">
-        <v>1.4729269117222449E-12</v>
+        <v>1.588573228865537E-2</v>
       </c>
       <c r="D13">
-        <v>1.154300577996658E-10</v>
+        <v>4.9758331725566422E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B14">
-        <v>1.199837673963986E-2</v>
+        <v>0.25714523511008919</v>
       </c>
       <c r="C14">
-        <v>0.22996438356275031</v>
+        <v>0.124325755751379</v>
       </c>
       <c r="D14">
-        <v>9.5624008051875167E-2</v>
+        <v>0.99016435173668749</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B15">
-        <v>6.111136725822362E-12</v>
+        <v>0.19382527400330829</v>
       </c>
       <c r="C15">
-        <v>1.4393674734716321E-12</v>
+        <v>6.5023169147236147E-3</v>
       </c>
       <c r="D15">
-        <v>1.145778903681817E-10</v>
+        <v>1.6652978972035509E-4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B16">
-        <v>1.279933527345601E-2</v>
+        <v>0.1349283109220383</v>
       </c>
       <c r="C16">
-        <v>3.2114257806535249E-2</v>
+        <v>4.5640922710810609E-3</v>
       </c>
       <c r="D16">
-        <v>3.3434366599781322E-2</v>
+        <v>1.272320071953177E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B17">
-        <v>3.6892923514969791E-6</v>
+        <v>6.166503420869663E-2</v>
       </c>
       <c r="C17">
-        <v>4.7055726150151379E-6</v>
+        <v>0.1663058248808586</v>
       </c>
       <c r="D17">
-        <v>8.3840933157754027E-5</v>
+        <v>0.52165593450756731</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B18">
-        <v>6.5916491748242851</v>
+        <v>5.106536538419728E-2</v>
       </c>
       <c r="C18">
-        <v>2.0041040471253502</v>
+        <v>2.3592068209314738</v>
       </c>
       <c r="D18">
-        <v>2.5665230622733941</v>
+        <v>2.4696769145455688</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B19">
-        <v>2.5458060847085201E-6</v>
+        <v>3.4656352023401199E-2</v>
       </c>
       <c r="C19">
-        <v>3.4330352606603342E-6</v>
+        <v>2.4719798735292332E-2</v>
       </c>
       <c r="D19">
-        <v>5.8704602749392477E-5</v>
+        <v>0.30768906802133972</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B20">
-        <v>4.033661308853386E-10</v>
+        <v>3.43073449066063E-2</v>
       </c>
       <c r="C20">
-        <v>1.353623474643504E-10</v>
+        <v>6.3563433057963531E-3</v>
       </c>
       <c r="D20">
-        <v>9.4854469619937893E-9</v>
+        <v>4.505433432886472E-3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B21">
-        <v>1.8706204042584999E-2</v>
+        <v>3.2647511294785422E-2</v>
       </c>
       <c r="C21">
-        <v>2.14183746551408E-2</v>
+        <v>4.8033107241127242E-2</v>
       </c>
       <c r="D21">
-        <v>0.42936512643665409</v>
+        <v>0.86060054518694218</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B22">
-        <v>1.234876982214576E-5</v>
+        <v>2.1640415049934841E-2</v>
       </c>
       <c r="C22">
-        <v>1.3502844791028859E-5</v>
+        <v>0.1115757804612663</v>
       </c>
       <c r="D22">
-        <v>2.8237178551287129E-4</v>
+        <v>8.0710441371364683E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>7.7011768017072662</v>
+        <v>1.8706204042584999E-2</v>
       </c>
       <c r="C23">
-        <v>27.634069321751429</v>
+        <v>2.14183746551408E-2</v>
       </c>
       <c r="D23">
-        <v>0.20694574342491531</v>
+        <v>0.42936512643665409</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>1.193794310014245E-7</v>
+        <v>1.757552893492545E-2</v>
       </c>
       <c r="C24">
-        <v>7.4870005518380365E-8</v>
+        <v>2.308693620914298E-2</v>
       </c>
       <c r="D24">
-        <v>2.2269183002470932E-6</v>
+        <v>0.10837263953084279</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -937,397 +937,400 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B26">
-        <v>6.166503420869663E-2</v>
+        <v>1.279933527345601E-2</v>
       </c>
       <c r="C26">
-        <v>0.1663058248808586</v>
+        <v>3.2114257806535249E-2</v>
       </c>
       <c r="D26">
-        <v>0.52165593450756731</v>
+        <v>3.3434366599781322E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B27">
-        <v>1.0092200335286889E-2</v>
+        <v>1.199837673963986E-2</v>
       </c>
       <c r="C27">
-        <v>3.7009332906337032E-2</v>
+        <v>0.22996438356275031</v>
       </c>
       <c r="D27">
-        <v>0.1203199084548358</v>
+        <v>9.5624008051875167E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B28">
-        <v>2.3361147164846521E-5</v>
+        <v>1.1980073546939011E-2</v>
       </c>
       <c r="C28">
-        <v>2.195860318764677E-2</v>
+        <v>0.5131998754849576</v>
       </c>
       <c r="D28">
-        <v>2.8278855091110191E-2</v>
+        <v>0.63473465406235863</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>3.2229862493861751E-5</v>
+        <v>1.0092200335286889E-2</v>
       </c>
       <c r="C29">
-        <v>5.7085121509831907E-5</v>
+        <v>3.7009332906337032E-2</v>
       </c>
       <c r="D29">
-        <v>2.2329759872776289E-3</v>
+        <v>0.1203199084548358</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B30">
-        <v>1.757552893492545E-2</v>
+        <v>9.6079080877745689E-3</v>
       </c>
       <c r="C30">
-        <v>2.308693620914298E-2</v>
+        <v>0.12369783294826189</v>
       </c>
       <c r="D30">
-        <v>0.10837263953084279</v>
+        <v>3.6524541792466447E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B31">
-        <v>1.253791371374682</v>
+        <v>9.0636696395679315E-3</v>
       </c>
       <c r="C31">
-        <v>6.7955974225458364</v>
+        <v>2.002687707008384E-2</v>
       </c>
       <c r="D31">
-        <v>4.8718125732327087</v>
+        <v>0.23050450904831651</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B32">
-        <v>3.7285231138021931E-4</v>
+        <v>1.1608199629336161E-3</v>
       </c>
       <c r="C32">
-        <v>2.4890532042625758E-3</v>
+        <v>3.4734868642094589E-4</v>
       </c>
       <c r="D32">
-        <v>3.3296192431616599E-3</v>
+        <v>2.5871531574585192E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>2.1640415049934841E-2</v>
+        <v>9.0594983144533193E-4</v>
       </c>
       <c r="C33">
-        <v>0.1115757804612663</v>
+        <v>0.67362255031092821</v>
       </c>
       <c r="D33">
-        <v>8.0710441371364683E-2</v>
+        <v>0.7774894892179447</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B34">
-        <v>0.80647862416774529</v>
+        <v>4.793000301370723E-4</v>
       </c>
       <c r="C34">
-        <v>0.75651600791116758</v>
+        <v>1.8156002782366709E-6</v>
       </c>
       <c r="D34">
-        <v>3.2674793021951869</v>
+        <v>2.5397797131466171E-3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>15.658917728599331</v>
+        <v>3.7285231138021931E-4</v>
       </c>
       <c r="C35">
-        <v>9.0788469454365543</v>
+        <v>2.4890532042625758E-3</v>
       </c>
       <c r="D35">
-        <v>48.139312564186852</v>
+        <v>3.3296192431616599E-3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B36">
-        <v>3.619750499183066E-6</v>
+        <v>2.2313242932521369E-4</v>
       </c>
       <c r="C36">
-        <v>1.3889023666763771E-4</v>
+        <v>1.3369104096129671E-4</v>
       </c>
       <c r="D36">
-        <v>1.306468200147889E-3</v>
+        <v>4.8604593767012719E-3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B37">
-        <v>0.39124037003791262</v>
+        <v>3.2229862493861751E-5</v>
       </c>
       <c r="C37">
-        <v>5.8045596720299724</v>
+        <v>5.7085121509831907E-5</v>
       </c>
       <c r="D37">
-        <v>3.8575005771961912</v>
+        <v>2.2329759872776289E-3</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B38">
-        <v>0.25714523511008919</v>
+        <v>2.3361147164846521E-5</v>
       </c>
       <c r="C38">
-        <v>0.124325755751379</v>
+        <v>2.195860318764677E-2</v>
       </c>
       <c r="D38">
-        <v>0.99016435173668749</v>
+        <v>2.8278855091110191E-2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B39">
-        <v>9.0594983144533193E-4</v>
+        <v>1.4304960218460321E-5</v>
       </c>
       <c r="C39">
-        <v>0.67362255031092821</v>
+        <v>3.2962673121780079E-6</v>
       </c>
       <c r="D39">
-        <v>0.7774894892179447</v>
+        <v>2.400831991429375E-4</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B40">
-        <v>1.9887779091065549</v>
+        <v>1.234876982214576E-5</v>
       </c>
       <c r="C40">
-        <v>23.48824620185021</v>
+        <v>1.3502844791028859E-5</v>
       </c>
       <c r="D40">
-        <v>22.799850192325749</v>
+        <v>2.8237178551287129E-4</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B41">
-        <v>1.1980073546939011E-2</v>
+        <v>1.187419547082984E-5</v>
       </c>
       <c r="C41">
-        <v>0.5131998754849576</v>
+        <v>2.491300380715086E-5</v>
       </c>
       <c r="D41">
-        <v>0.63473465406235863</v>
+        <v>3.0350491211591769E-4</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="B42">
-        <v>0.1349283109220383</v>
+        <v>4.819459230832042E-6</v>
       </c>
       <c r="C42">
-        <v>4.5640922710810609E-3</v>
+        <v>1.1504826076681249E-6</v>
       </c>
       <c r="D42">
-        <v>1.272320071953177E-2</v>
+        <v>8.2046086774322394E-5</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B43">
-        <v>3.2647511294785422E-2</v>
+        <v>3.8759345642064423E-6</v>
       </c>
       <c r="C43">
-        <v>4.8033107241127242E-2</v>
+        <v>5.3781619869872004E-6</v>
       </c>
       <c r="D43">
-        <v>0.86060054518694218</v>
+        <v>8.7630716434962218E-5</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B44">
-        <v>3.43073449066063E-2</v>
+        <v>3.6892923514969791E-6</v>
       </c>
       <c r="C44">
-        <v>6.3563433057963531E-3</v>
+        <v>4.7055726150151379E-6</v>
       </c>
       <c r="D44">
-        <v>4.505433432886472E-3</v>
+        <v>8.3840933157754027E-5</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B45">
-        <v>4.3669200922577902E-7</v>
+        <v>3.619750499183066E-6</v>
       </c>
       <c r="C45">
-        <v>1.4199240245968061E-3</v>
+        <v>1.3889023666763771E-4</v>
       </c>
       <c r="D45">
-        <v>5.880349535771056E-3</v>
+        <v>1.306468200147889E-3</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B46">
-        <v>0.19382527400330829</v>
+        <v>2.5458060847085201E-6</v>
       </c>
       <c r="C46">
-        <v>6.5023169147236147E-3</v>
+        <v>3.4330352606603342E-6</v>
       </c>
       <c r="D46">
-        <v>1.6652978972035509E-4</v>
+        <v>5.8704602749392477E-5</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="B47">
-        <v>61.990260315491277</v>
+        <v>1.6685161622277301E-6</v>
       </c>
       <c r="C47">
-        <v>19.25647728593885</v>
+        <v>8.14462663268619E-7</v>
       </c>
       <c r="D47">
-        <v>4.7740240470292141</v>
+        <v>3.2091426839171458E-5</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>0.32612271737307919</v>
+        <v>4.3669200922577902E-7</v>
       </c>
       <c r="C48">
-        <v>1.588573228865537E-2</v>
+        <v>1.4199240245968061E-3</v>
       </c>
       <c r="D48">
-        <v>4.9758331725566422E-2</v>
+        <v>5.880349535771056E-3</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B49">
-        <v>3.4656352023401199E-2</v>
+        <v>1.193794310014245E-7</v>
       </c>
       <c r="C49">
-        <v>2.4719798735292332E-2</v>
+        <v>7.4870005518380365E-8</v>
       </c>
       <c r="D49">
-        <v>0.30768906802133972</v>
+        <v>2.2269183002470932E-6</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B50">
-        <v>9.0636696395679315E-3</v>
+        <v>1.9199368256982229E-8</v>
       </c>
       <c r="C50">
-        <v>2.002687707008384E-2</v>
+        <v>1.128473011119852E-8</v>
       </c>
       <c r="D50">
-        <v>0.23050450904831651</v>
+        <v>4.1339429845822741E-7</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B51">
-        <v>4.793000301370723E-4</v>
+        <v>4.033661308853386E-10</v>
       </c>
       <c r="C51">
-        <v>1.8156002782366709E-6</v>
+        <v>1.353623474643504E-10</v>
       </c>
       <c r="D51">
-        <v>2.5397797131466171E-3</v>
+        <v>9.4854469619937893E-9</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B52">
-        <v>9.6079080877745689E-3</v>
+        <v>6.2303481337857136E-12</v>
       </c>
       <c r="C52">
-        <v>0.12369783294826189</v>
+        <v>1.4729269117222449E-12</v>
       </c>
       <c r="D52">
-        <v>3.6524541792466447E-2</v>
+        <v>1.154300577996658E-10</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="B53">
-        <v>5.106536538419728E-2</v>
+        <v>6.111136725822362E-12</v>
       </c>
       <c r="C53">
-        <v>2.3592068209314738</v>
+        <v>1.4393674734716321E-12</v>
       </c>
       <c r="D53">
-        <v>2.4696769145455688</v>
+        <v>1.145778903681817E-10</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D53">
+    <sortCondition descending="1" ref="B2:B53"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>